--- a/files/p04.xlsx
+++ b/files/p04.xlsx
@@ -653,9 +653,12 @@
       <sheetName val="all-items"/>
       <sheetName val="recipes"/>
       <sheetName val="participants"/>
+      <sheetName val="inventory"/>
+      <sheetName val="places"/>
+      <sheetName val="type"/>
+      <sheetName val="all-items-raw"/>
+      <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
-      <sheetName val="inventory"/>
-      <sheetName val="all-items-raw"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2168,18 +2171,18 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>apron</v>
+            <v>artichoke</v>
           </cell>
           <cell r="B4" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C4" t="str">
-            <v>protect</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>artichoke</v>
+            <v>asparagus</v>
           </cell>
           <cell r="B5" t="str">
             <v>c</v>
@@ -2190,7 +2193,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>asparagus</v>
+            <v>aubergine</v>
           </cell>
           <cell r="B6" t="str">
             <v>c</v>
@@ -2201,7 +2204,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>aubergine</v>
+            <v>avocado</v>
           </cell>
           <cell r="B7" t="str">
             <v>c</v>
@@ -2212,29 +2215,29 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>avocado</v>
+            <v>bacon</v>
           </cell>
           <cell r="B8" t="str">
             <v>c</v>
           </cell>
           <cell r="C8" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>bacon</v>
+            <v>bag</v>
           </cell>
           <cell r="B9" t="str">
             <v>c</v>
           </cell>
           <cell r="C9" t="str">
-            <v>proteins</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>bag</v>
+            <v>bagFreezer</v>
           </cell>
           <cell r="B10" t="str">
             <v>c</v>
@@ -2245,7 +2248,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>bagFreezer</v>
+            <v>bakingPaper</v>
           </cell>
           <cell r="B11" t="str">
             <v>c</v>
@@ -2256,106 +2259,106 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>bakingPaper</v>
+            <v>bakingPwd</v>
           </cell>
           <cell r="B12" t="str">
             <v>c</v>
           </cell>
           <cell r="C12" t="str">
-            <v>disposables</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>bakingPwd</v>
+            <v>basil</v>
           </cell>
           <cell r="B13" t="str">
             <v>c</v>
           </cell>
           <cell r="C13" t="str">
-            <v>cereals</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>basil</v>
+            <v>basilPwd</v>
           </cell>
           <cell r="B14" t="str">
             <v>c</v>
           </cell>
           <cell r="C14" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>basilPwd</v>
+            <v>beans</v>
           </cell>
           <cell r="B15" t="str">
             <v>c</v>
           </cell>
           <cell r="C15" t="str">
-            <v>spice</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>beans</v>
+            <v>beanSprouts</v>
           </cell>
           <cell r="B16" t="str">
             <v>c</v>
           </cell>
           <cell r="C16" t="str">
-            <v>legumes</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>beanSprouts</v>
+            <v>beef</v>
           </cell>
           <cell r="B17" t="str">
             <v>c</v>
           </cell>
           <cell r="C17" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>beef</v>
+            <v>beer</v>
           </cell>
           <cell r="B18" t="str">
             <v>c</v>
           </cell>
           <cell r="C18" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>beer</v>
+            <v>bellPepper</v>
           </cell>
           <cell r="B19" t="str">
             <v>c</v>
           </cell>
           <cell r="C19" t="str">
-            <v>drinks</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>bellPepper</v>
+            <v>blackPepper</v>
           </cell>
           <cell r="B20" t="str">
             <v>c</v>
           </cell>
           <cell r="C20" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>blackPepper</v>
+            <v>bouillon</v>
           </cell>
           <cell r="B21" t="str">
             <v>c</v>
@@ -2366,106 +2369,106 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>blender</v>
+            <v>bread</v>
           </cell>
           <cell r="B22" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C22" t="str">
-            <v>prepare</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>bottle</v>
+            <v>butter</v>
           </cell>
           <cell r="B23" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C23" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>bouillon</v>
+            <v>butternutSquash</v>
           </cell>
           <cell r="B24" t="str">
             <v>c</v>
           </cell>
           <cell r="C24" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>bowl</v>
+            <v>cabbage</v>
           </cell>
           <cell r="B25" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C25" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>boxCondiments</v>
+            <v>cake</v>
           </cell>
           <cell r="B26" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C26" t="str">
-            <v>contain</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>bread</v>
+            <v>cardamon</v>
           </cell>
           <cell r="B27" t="str">
             <v>c</v>
           </cell>
           <cell r="C27" t="str">
-            <v>breads</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>brush</v>
+            <v>caribeanSpices</v>
           </cell>
           <cell r="B28" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C28" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>bucket</v>
+            <v>carrots</v>
           </cell>
           <cell r="B29" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C29" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>butter</v>
+            <v>cayenne</v>
           </cell>
           <cell r="B30" t="str">
             <v>c</v>
           </cell>
           <cell r="C30" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>butternutSquash</v>
+            <v>celery</v>
           </cell>
           <cell r="B31" t="str">
             <v>c</v>
@@ -2476,51 +2479,51 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>cabbage</v>
+            <v>cheese</v>
           </cell>
           <cell r="B32" t="str">
             <v>c</v>
           </cell>
           <cell r="C32" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>cake</v>
+            <v>chicken</v>
           </cell>
           <cell r="B33" t="str">
             <v>c</v>
           </cell>
           <cell r="C33" t="str">
-            <v>breads</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>canOpener</v>
+            <v>chickpeas</v>
           </cell>
           <cell r="B34" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C34" t="str">
-            <v>prepare</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>cardamon</v>
+            <v>chillies</v>
           </cell>
           <cell r="B35" t="str">
             <v>c</v>
           </cell>
           <cell r="C35" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>caribeanSpices</v>
+            <v>chilliesFlakes</v>
           </cell>
           <cell r="B36" t="str">
             <v>c</v>
@@ -2531,29 +2534,29 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>carrots</v>
+            <v>chilliesPwd</v>
           </cell>
           <cell r="B37" t="str">
             <v>c</v>
           </cell>
           <cell r="C37" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>case</v>
+            <v>chineseGreens</v>
           </cell>
           <cell r="B38" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C38" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>cayenne</v>
+            <v>chineseSpice</v>
           </cell>
           <cell r="B39" t="str">
             <v>c</v>
@@ -2564,106 +2567,106 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>celery</v>
+            <v>chips</v>
           </cell>
           <cell r="B40" t="str">
             <v>c</v>
           </cell>
           <cell r="C40" t="str">
-            <v>produce</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>charger</v>
+            <v>chives</v>
           </cell>
           <cell r="B41" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C41" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>cheese</v>
+            <v>chorizo</v>
           </cell>
           <cell r="B42" t="str">
             <v>c</v>
           </cell>
           <cell r="C42" t="str">
-            <v>dairy</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>chicken</v>
+            <v>cider</v>
           </cell>
           <cell r="B43" t="str">
             <v>c</v>
           </cell>
           <cell r="C43" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>chickpeas</v>
+            <v>cilantroBase</v>
           </cell>
           <cell r="B44" t="str">
             <v>c</v>
           </cell>
           <cell r="C44" t="str">
-            <v>legumes</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>chillies</v>
+            <v>cinamon</v>
           </cell>
           <cell r="B45" t="str">
             <v>c</v>
           </cell>
           <cell r="C45" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>chilliesFlakes</v>
+            <v>cleaningLiquid</v>
           </cell>
           <cell r="B46" t="str">
             <v>c</v>
           </cell>
           <cell r="C46" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>chilliesPwd</v>
+            <v>clingFilm</v>
           </cell>
           <cell r="B47" t="str">
             <v>c</v>
           </cell>
           <cell r="C47" t="str">
-            <v>spice</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>chineseGreens</v>
+            <v>cloth</v>
           </cell>
           <cell r="B48" t="str">
             <v>c</v>
           </cell>
           <cell r="C48" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>chineseSpice</v>
+            <v>cocoa</v>
           </cell>
           <cell r="B49" t="str">
             <v>c</v>
@@ -2674,227 +2677,227 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>chips</v>
+            <v>coconutCream</v>
           </cell>
           <cell r="B50" t="str">
             <v>c</v>
           </cell>
           <cell r="C50" t="str">
-            <v>breads</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>chives</v>
+            <v>coffee</v>
           </cell>
           <cell r="B51" t="str">
             <v>c</v>
           </cell>
           <cell r="C51" t="str">
-            <v>spice</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>chopB</v>
+            <v>coriander</v>
           </cell>
           <cell r="B52" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C52" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>chopSticks</v>
+            <v>corianderPwd</v>
           </cell>
           <cell r="B53" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C53" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>chorizo</v>
+            <v>corn</v>
           </cell>
           <cell r="B54" t="str">
             <v>c</v>
           </cell>
           <cell r="C54" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cider</v>
+            <v>cornFlour</v>
           </cell>
           <cell r="B55" t="str">
             <v>c</v>
           </cell>
           <cell r="C55" t="str">
-            <v>drinks</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cilantroBase</v>
+            <v>courgette</v>
           </cell>
           <cell r="B56" t="str">
             <v>c</v>
           </cell>
           <cell r="C56" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cinamon</v>
+            <v>cream</v>
           </cell>
           <cell r="B57" t="str">
             <v>c</v>
           </cell>
           <cell r="C57" t="str">
-            <v>spice</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cleaningLiquid</v>
+            <v>cucumber</v>
           </cell>
           <cell r="B58" t="str">
             <v>c</v>
           </cell>
           <cell r="C58" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>clingFilm</v>
+            <v>cumin</v>
           </cell>
           <cell r="B59" t="str">
             <v>c</v>
           </cell>
           <cell r="C59" t="str">
-            <v>disposables</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cloth</v>
+            <v>curry</v>
           </cell>
           <cell r="B60" t="str">
             <v>c</v>
           </cell>
           <cell r="C60" t="str">
-            <v>cleaning</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>clothes</v>
+            <v>disposables</v>
           </cell>
           <cell r="B61" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C61" t="str">
-            <v>noCooking</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cocoa</v>
+            <v>dWashL</v>
           </cell>
           <cell r="B62" t="str">
             <v>c</v>
           </cell>
           <cell r="C62" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>coconutCream</v>
+            <v>eggs</v>
           </cell>
           <cell r="B63" t="str">
             <v>c</v>
           </cell>
           <cell r="C63" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>coffee</v>
+            <v>fennel</v>
           </cell>
           <cell r="B64" t="str">
             <v>c</v>
           </cell>
           <cell r="C64" t="str">
-            <v>drinks</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>coffeeMachine</v>
+            <v>fishSauce</v>
           </cell>
           <cell r="B65" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C65" t="str">
-            <v>toHeat</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>colander</v>
+            <v>fiveSpicesSeasoning</v>
           </cell>
           <cell r="B66" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C66" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>computer</v>
+            <v>flour</v>
           </cell>
           <cell r="B67" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C67" t="str">
-            <v>tech</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>container</v>
+            <v>food</v>
           </cell>
           <cell r="B68" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C68" t="str">
-            <v>store</v>
+            <v>food</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>cookingSpoon</v>
+            <v>frozenVegs</v>
           </cell>
           <cell r="B69" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C69" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>coriander</v>
+            <v>garlic</v>
           </cell>
           <cell r="B70" t="str">
             <v>c</v>
@@ -2905,7 +2908,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>corianderPwd</v>
+            <v>garlicPwd</v>
           </cell>
           <cell r="B71" t="str">
             <v>c</v>
@@ -2916,271 +2919,271 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>corn</v>
+            <v>ginger</v>
           </cell>
           <cell r="B72" t="str">
             <v>c</v>
           </cell>
           <cell r="C72" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>cornFlour</v>
+            <v>gloves</v>
           </cell>
           <cell r="B73" t="str">
             <v>c</v>
           </cell>
           <cell r="C73" t="str">
-            <v>cereals</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>courgette</v>
+            <v>goyaSeasoning</v>
           </cell>
           <cell r="B74" t="str">
             <v>c</v>
           </cell>
           <cell r="C74" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>cpB</v>
+            <v>greenBeans</v>
           </cell>
           <cell r="B75" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C75" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>cream</v>
+            <v>greenPeas</v>
           </cell>
           <cell r="B76" t="str">
             <v>c</v>
           </cell>
           <cell r="C76" t="str">
-            <v>dairy</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>crusher</v>
+            <v>greenSnaps</v>
           </cell>
           <cell r="B77" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C77" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>cucumber</v>
+            <v>ham</v>
           </cell>
           <cell r="B78" t="str">
             <v>c</v>
           </cell>
           <cell r="C78" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>cumin</v>
+            <v>hoisinSauce</v>
           </cell>
           <cell r="B79" t="str">
             <v>c</v>
           </cell>
           <cell r="C79" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>cup</v>
+            <v>hotSauce</v>
           </cell>
           <cell r="B80" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C80" t="str">
-            <v>contain</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>curry</v>
+            <v>hummus</v>
           </cell>
           <cell r="B81" t="str">
             <v>c</v>
           </cell>
           <cell r="C81" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>cutlery</v>
+            <v>hWashL</v>
           </cell>
           <cell r="B82" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C82" t="str">
-            <v>manipulate</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>dishTray</v>
+            <v>italianSpices</v>
           </cell>
           <cell r="B83" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C83" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>dishWasher</v>
+            <v>jam</v>
           </cell>
           <cell r="B84" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C84" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>disposables</v>
+            <v>juice</v>
           </cell>
           <cell r="B85" t="str">
             <v>c</v>
           </cell>
           <cell r="C85" t="str">
-            <v>disposables</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>documents</v>
+            <v>kale</v>
           </cell>
           <cell r="B86" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C86" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>dustBrush</v>
+            <v>kitchenRoll</v>
           </cell>
           <cell r="B87" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C87" t="str">
-            <v>clean</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>dustPan</v>
+            <v>kiwi</v>
           </cell>
           <cell r="B88" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C88" t="str">
-            <v>clean</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>dw</v>
+            <v>lard</v>
           </cell>
           <cell r="B89" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C89" t="str">
-            <v>toStore</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>dWashL</v>
+            <v>leeks</v>
           </cell>
           <cell r="B90" t="str">
             <v>c</v>
           </cell>
           <cell r="C90" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>eggs</v>
+            <v>lemon</v>
           </cell>
           <cell r="B91" t="str">
             <v>c</v>
           </cell>
           <cell r="C91" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>extractorFan</v>
+            <v>lettuce</v>
           </cell>
           <cell r="B92" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C92" t="str">
-            <v>toHeat</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>faucet</v>
+            <v>lighter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C93" t="str">
-            <v>toDispose</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>fennel</v>
+            <v>lime</v>
           </cell>
           <cell r="B94" t="str">
             <v>c</v>
           </cell>
           <cell r="C94" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>fireAlarm</v>
+            <v>macarroni</v>
           </cell>
           <cell r="B95" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C95" t="str">
-            <v>toSet</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>fishSauce</v>
+            <v>mappleSyrup</v>
           </cell>
           <cell r="B96" t="str">
             <v>c</v>
@@ -3191,7 +3194,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>fiveSpicesSeasoning</v>
+            <v>marjoran</v>
           </cell>
           <cell r="B97" t="str">
             <v>c</v>
@@ -3202,139 +3205,139 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>flour</v>
+            <v>masalaSpices</v>
           </cell>
           <cell r="B98" t="str">
             <v>c</v>
           </cell>
           <cell r="C98" t="str">
-            <v>cereals</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>food</v>
+            <v>milk</v>
           </cell>
           <cell r="B99" t="str">
             <v>c</v>
           </cell>
           <cell r="C99" t="str">
-            <v>food</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>fork</v>
+            <v>mincedMeat</v>
           </cell>
           <cell r="B100" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C100" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>freezer</v>
+            <v>mint</v>
           </cell>
           <cell r="B101" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C101" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>fridge</v>
+            <v>mushrooms</v>
           </cell>
           <cell r="B102" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C102" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>frozenVegs</v>
+            <v>napkins</v>
           </cell>
           <cell r="B103" t="str">
             <v>c</v>
           </cell>
           <cell r="C103" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>garlic</v>
+            <v>noodles</v>
           </cell>
           <cell r="B104" t="str">
             <v>c</v>
           </cell>
           <cell r="C104" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>garlicPwd</v>
+            <v>nuggets</v>
           </cell>
           <cell r="B105" t="str">
             <v>c</v>
           </cell>
           <cell r="C105" t="str">
-            <v>spice</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>ginger</v>
+            <v>nuts</v>
           </cell>
           <cell r="B106" t="str">
             <v>c</v>
           </cell>
           <cell r="C106" t="str">
-            <v>spice</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>glass</v>
+            <v>oil</v>
           </cell>
           <cell r="B107" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C107" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>glassWine</v>
+            <v>oilFlavoured</v>
           </cell>
           <cell r="B108" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C108" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>gloves</v>
+            <v>onion</v>
           </cell>
           <cell r="B109" t="str">
             <v>c</v>
           </cell>
           <cell r="C109" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>goyaSeasoning</v>
+            <v>oregano</v>
           </cell>
           <cell r="B110" t="str">
             <v>c</v>
@@ -3345,128 +3348,128 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>grater</v>
+            <v>oysterSauce</v>
           </cell>
           <cell r="B111" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C111" t="str">
-            <v>prepare</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>greenBeans</v>
+            <v>panko</v>
           </cell>
           <cell r="B112" t="str">
             <v>c</v>
           </cell>
           <cell r="C112" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>greenPeas</v>
+            <v>paprika</v>
           </cell>
           <cell r="B113" t="str">
             <v>c</v>
           </cell>
           <cell r="C113" t="str">
-            <v>legumes</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>greenSnaps</v>
+            <v>pen</v>
           </cell>
           <cell r="B114" t="str">
             <v>c</v>
           </cell>
           <cell r="C114" t="str">
-            <v>produce</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>ham</v>
+            <v>pizza</v>
           </cell>
           <cell r="B115" t="str">
             <v>c</v>
           </cell>
           <cell r="C115" t="str">
-            <v>proteins</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>hoisinSauce</v>
+            <v>potatoes</v>
           </cell>
           <cell r="B116" t="str">
             <v>c</v>
           </cell>
           <cell r="C116" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>holder</v>
+            <v>prawns</v>
           </cell>
           <cell r="B117" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C117" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>hotSauce</v>
+            <v>quinoa&amp;rice</v>
           </cell>
           <cell r="B118" t="str">
             <v>c</v>
           </cell>
           <cell r="C118" t="str">
-            <v>condiment</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>hummus</v>
+            <v>rice</v>
           </cell>
           <cell r="B119" t="str">
             <v>c</v>
           </cell>
           <cell r="C119" t="str">
-            <v>condiment</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>hWashL</v>
+            <v>rigatoni</v>
           </cell>
           <cell r="B120" t="str">
             <v>c</v>
           </cell>
           <cell r="C120" t="str">
-            <v>cleaning</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>iceRocks</v>
+            <v>rosemary</v>
           </cell>
           <cell r="B121" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C121" t="str">
-            <v>other</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>italianSpices</v>
+            <v>salt</v>
           </cell>
           <cell r="B122" t="str">
             <v>c</v>
@@ -3477,51 +3480,51 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>jam</v>
+            <v>sausage</v>
           </cell>
           <cell r="B123" t="str">
             <v>c</v>
           </cell>
           <cell r="C123" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>jar</v>
+            <v>seasoning</v>
           </cell>
           <cell r="B124" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C124" t="str">
-            <v>contain</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>jarBlender</v>
+            <v>seasoningChicken</v>
           </cell>
           <cell r="B125" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C125" t="str">
-            <v>prepare</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>jarLid</v>
+            <v>soap</v>
           </cell>
           <cell r="B126" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C126" t="str">
-            <v>contain</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>juice</v>
+            <v>soda</v>
           </cell>
           <cell r="B127" t="str">
             <v>c</v>
@@ -3532,95 +3535,95 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>kale</v>
+            <v>soySauce</v>
           </cell>
           <cell r="B128" t="str">
             <v>c</v>
           </cell>
           <cell r="C128" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>kettle</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="B129" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C129" t="str">
-            <v>heat</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>key</v>
+            <v>spice_ui</v>
           </cell>
           <cell r="B130" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C130" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>kitchenRoll</v>
+            <v>spinach</v>
           </cell>
           <cell r="B131" t="str">
             <v>c</v>
           </cell>
           <cell r="C131" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>kiwi</v>
+            <v>spirit</v>
           </cell>
           <cell r="B132" t="str">
             <v>c</v>
           </cell>
           <cell r="C132" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>knife</v>
+            <v>sponge</v>
           </cell>
           <cell r="B133" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C133" t="str">
-            <v>prepare</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>ladle</v>
+            <v>springOnion</v>
           </cell>
           <cell r="B134" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C134" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>lard</v>
+            <v>sugar</v>
           </cell>
           <cell r="B135" t="str">
             <v>c</v>
           </cell>
           <cell r="C135" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>leeks</v>
+            <v>sweetPotatoes</v>
           </cell>
           <cell r="B136" t="str">
             <v>c</v>
@@ -3631,744 +3634,744 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>lemon</v>
+            <v>tahini</v>
           </cell>
           <cell r="B137" t="str">
             <v>c</v>
           </cell>
           <cell r="C137" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>lettuce</v>
+            <v>tea</v>
           </cell>
           <cell r="B138" t="str">
             <v>c</v>
           </cell>
           <cell r="C138" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>lid</v>
+            <v>thyme</v>
           </cell>
           <cell r="B139" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C139" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>lighter</v>
+            <v>toiletPaper</v>
           </cell>
           <cell r="B140" t="str">
             <v>c</v>
           </cell>
           <cell r="C140" t="str">
-            <v>stationery</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>lightSwitch</v>
+            <v>tomatoes</v>
           </cell>
           <cell r="B141" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C141" t="str">
-            <v>toSet</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>lime</v>
+            <v>tomatoesProcessed</v>
           </cell>
           <cell r="B142" t="str">
             <v>c</v>
           </cell>
           <cell r="C142" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>lunchBag</v>
+            <v>tomatoesSauce</v>
           </cell>
           <cell r="B143" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C143" t="str">
-            <v>store</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>macarroni</v>
+            <v>tortillas</v>
           </cell>
           <cell r="B144" t="str">
             <v>c</v>
           </cell>
           <cell r="C144" t="str">
-            <v>cereals</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>mappleSyrup</v>
+            <v>turmeric</v>
           </cell>
           <cell r="B145" t="str">
             <v>c</v>
           </cell>
           <cell r="C145" t="str">
-            <v>condiment</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>marjoran</v>
+            <v>turnip</v>
           </cell>
           <cell r="B146" t="str">
             <v>c</v>
           </cell>
           <cell r="C146" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>masalaSpices</v>
+            <v>vinegar</v>
           </cell>
           <cell r="B147" t="str">
             <v>c</v>
           </cell>
           <cell r="C147" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>measuringJar</v>
+            <v>water</v>
           </cell>
           <cell r="B148" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C148" t="str">
-            <v>measure</v>
+            <v>water</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>measuringSpoon</v>
+            <v>whitePepper</v>
           </cell>
           <cell r="B149" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C149" t="str">
-            <v>measure</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>microwave</v>
+            <v>wine</v>
           </cell>
           <cell r="B150" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C150" t="str">
-            <v>toHeat</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>milk</v>
+            <v>wipes</v>
           </cell>
           <cell r="B151" t="str">
             <v>c</v>
           </cell>
           <cell r="C151" t="str">
-            <v>dairy</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>mincedMeat</v>
+            <v>worcestershireSauce</v>
           </cell>
           <cell r="B152" t="str">
             <v>c</v>
           </cell>
           <cell r="C152" t="str">
-            <v>proteins</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>mint</v>
+            <v>yogurt</v>
           </cell>
           <cell r="B153" t="str">
             <v>c</v>
           </cell>
           <cell r="C153" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>mixingBowl</v>
+            <v>coffeeMachine</v>
           </cell>
           <cell r="B154" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C154" t="str">
-            <v>contain</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>mop</v>
+            <v>cpB</v>
           </cell>
           <cell r="B155" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C155" t="str">
-            <v>clean</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>mortar</v>
+            <v>dishWasher</v>
           </cell>
           <cell r="B156" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C156" t="str">
-            <v>prepare</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>mushrooms</v>
+            <v>dw</v>
           </cell>
           <cell r="B157" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C157" t="str">
-            <v>produce</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>napkins</v>
+            <v>extractorFan</v>
           </cell>
           <cell r="B158" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C158" t="str">
-            <v>cleaning</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>nBook</v>
+            <v>faucet</v>
           </cell>
           <cell r="B159" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C159" t="str">
-            <v>accessInfo</v>
+            <v>toDispose</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>noodles</v>
+            <v>fireAlarm</v>
           </cell>
           <cell r="B160" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C160" t="str">
-            <v>cereals</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>nuggets</v>
+            <v>freezer</v>
           </cell>
           <cell r="B161" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C161" t="str">
-            <v>proteins</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>nuts</v>
+            <v>fridge</v>
           </cell>
           <cell r="B162" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C162" t="str">
-            <v>cereals</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>oil</v>
+            <v>lightSwitch</v>
           </cell>
           <cell r="B163" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C163" t="str">
-            <v>oils&amp;fats</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>oilFlavoured</v>
+            <v>microwave</v>
           </cell>
           <cell r="B164" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C164" t="str">
-            <v>oils&amp;fats</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>onion</v>
+            <v>oven</v>
           </cell>
           <cell r="B165" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C165" t="str">
-            <v>produce</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>oregano</v>
+            <v>stove</v>
           </cell>
           <cell r="B166" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C166" t="str">
-            <v>spice</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>oven</v>
+            <v>washingMachine</v>
           </cell>
           <cell r="B167" t="str">
             <v>e</v>
           </cell>
           <cell r="C167" t="str">
-            <v>toHeat</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>ovenDish</v>
+            <v>window</v>
           </cell>
           <cell r="B168" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C168" t="str">
-            <v>heat</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>ovenGloves</v>
+            <v>apron</v>
           </cell>
           <cell r="B169" t="str">
             <v>u</v>
           </cell>
           <cell r="C169" t="str">
-            <v>manipulate</v>
+            <v>protect</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>oysterSauce</v>
+            <v>blender</v>
           </cell>
           <cell r="B170" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C170" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>pan</v>
+            <v>bottle</v>
           </cell>
           <cell r="B171" t="str">
             <v>u</v>
           </cell>
           <cell r="C171" t="str">
-            <v>heat</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>panko</v>
+            <v>bowl</v>
           </cell>
           <cell r="B172" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C172" t="str">
-            <v>cereals</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>paprika</v>
+            <v>boxCondiments</v>
           </cell>
           <cell r="B173" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C173" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>pastaServer</v>
+            <v>brush</v>
           </cell>
           <cell r="B174" t="str">
             <v>u</v>
           </cell>
           <cell r="C174" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>peeler</v>
+            <v>bucket</v>
           </cell>
           <cell r="B175" t="str">
             <v>u</v>
           </cell>
           <cell r="C175" t="str">
-            <v>prepare</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>pen</v>
+            <v>canOpener</v>
           </cell>
           <cell r="B176" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C176" t="str">
-            <v>stationery</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>phone</v>
+            <v>case</v>
           </cell>
           <cell r="B177" t="str">
             <v>u</v>
           </cell>
           <cell r="C177" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>pizza</v>
+            <v>charger</v>
           </cell>
           <cell r="B178" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C178" t="str">
-            <v>readyToEat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>plantPot</v>
+            <v>chopB</v>
           </cell>
           <cell r="B179" t="str">
             <v>u</v>
           </cell>
           <cell r="C179" t="str">
-            <v>noCooking</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>plate</v>
+            <v>chopSticks</v>
           </cell>
           <cell r="B180" t="str">
             <v>u</v>
           </cell>
           <cell r="C180" t="str">
-            <v>contain</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>pot</v>
+            <v>clothes</v>
           </cell>
           <cell r="B181" t="str">
             <v>u</v>
           </cell>
           <cell r="C181" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>potatoes</v>
+            <v>colander</v>
           </cell>
           <cell r="B182" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C182" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>prawns</v>
+            <v>computer</v>
           </cell>
           <cell r="B183" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C183" t="str">
-            <v>proteins</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>processor</v>
+            <v>container</v>
           </cell>
           <cell r="B184" t="str">
             <v>u</v>
           </cell>
           <cell r="C184" t="str">
-            <v>prepare</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>quinoa&amp;rice</v>
+            <v>cookingSpoon</v>
           </cell>
           <cell r="B185" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C185" t="str">
-            <v>readyToEat</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>radio</v>
+            <v>crusher</v>
           </cell>
           <cell r="B186" t="str">
             <v>u</v>
           </cell>
           <cell r="C186" t="str">
-            <v>tech</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>rBook</v>
+            <v>cup</v>
           </cell>
           <cell r="B187" t="str">
             <v>u</v>
           </cell>
           <cell r="C187" t="str">
-            <v>accessInfo</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>remoteControl</v>
+            <v>cutlery</v>
           </cell>
           <cell r="B188" t="str">
             <v>u</v>
           </cell>
           <cell r="C188" t="str">
-            <v>noCooking</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>rice</v>
+            <v>dishTray</v>
           </cell>
           <cell r="B189" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C189" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>riceCooker</v>
+            <v>documents</v>
           </cell>
           <cell r="B190" t="str">
             <v>u</v>
           </cell>
           <cell r="C190" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>rigatoni</v>
+            <v>dustBrush</v>
           </cell>
           <cell r="B191" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C191" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>rosemary</v>
+            <v>dustPan</v>
           </cell>
           <cell r="B192" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C192" t="str">
-            <v>spice</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>rSheet</v>
+            <v>fork</v>
           </cell>
           <cell r="B193" t="str">
             <v>u</v>
           </cell>
           <cell r="C193" t="str">
-            <v>accessInfo</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>salt</v>
+            <v>glass</v>
           </cell>
           <cell r="B194" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C194" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>sausage</v>
+            <v>glassWine</v>
           </cell>
           <cell r="B195" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C195" t="str">
-            <v>proteins</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>scale</v>
+            <v>grater</v>
           </cell>
           <cell r="B196" t="str">
             <v>u</v>
           </cell>
           <cell r="C196" t="str">
-            <v>measure</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>scissors</v>
+            <v>holder</v>
           </cell>
           <cell r="B197" t="str">
             <v>u</v>
           </cell>
           <cell r="C197" t="str">
-            <v>prepare</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>sealingClips</v>
+            <v>iceRocks</v>
           </cell>
           <cell r="B198" t="str">
             <v>u</v>
           </cell>
           <cell r="C198" t="str">
-            <v>store</v>
+            <v>other</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>seasoning</v>
+            <v>jar</v>
           </cell>
           <cell r="B199" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C199" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>seasoningChicken</v>
+            <v>jarBlender</v>
           </cell>
           <cell r="B200" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C200" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>sinkDrainer</v>
+            <v>jarLid</v>
           </cell>
           <cell r="B201" t="str">
             <v>u</v>
           </cell>
           <cell r="C201" t="str">
-            <v>manipulate</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>smartAssistant</v>
+            <v>kettle</v>
           </cell>
           <cell r="B202" t="str">
             <v>u</v>
           </cell>
           <cell r="C202" t="str">
-            <v>tech</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>smartWatch</v>
+            <v>key</v>
           </cell>
           <cell r="B203" t="str">
             <v>u</v>
           </cell>
           <cell r="C203" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>smasher</v>
+            <v>knife</v>
           </cell>
           <cell r="B204" t="str">
             <v>u</v>
@@ -4379,139 +4382,139 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>soap</v>
+            <v>ladle</v>
           </cell>
           <cell r="B205" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C205" t="str">
-            <v>cleaning</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>soda</v>
+            <v>lid</v>
           </cell>
           <cell r="B206" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C206" t="str">
-            <v>drinks</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>soySauce</v>
+            <v>lunchBag</v>
           </cell>
           <cell r="B207" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C207" t="str">
-            <v>condiment</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>spaghetti</v>
+            <v>measuringJar</v>
           </cell>
           <cell r="B208" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C208" t="str">
-            <v>cereals</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>speaker</v>
+            <v>measuringSpoon</v>
           </cell>
           <cell r="B209" t="str">
             <v>u</v>
           </cell>
           <cell r="C209" t="str">
-            <v>tech</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>spice_ui</v>
+            <v>mixingBowl</v>
           </cell>
           <cell r="B210" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C210" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>spinach</v>
+            <v>mop</v>
           </cell>
           <cell r="B211" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C211" t="str">
-            <v>produce</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>spirit</v>
+            <v>mortar</v>
           </cell>
           <cell r="B212" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C212" t="str">
-            <v>drinks</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>sponge</v>
+            <v>nBook</v>
           </cell>
           <cell r="B213" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C213" t="str">
-            <v>cleaning</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>spoon</v>
+            <v>ovenDish</v>
           </cell>
           <cell r="B214" t="str">
             <v>u</v>
           </cell>
           <cell r="C214" t="str">
-            <v>manipulate</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>springOnion</v>
+            <v>ovenGloves</v>
           </cell>
           <cell r="B215" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C215" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>stove</v>
+            <v>pan</v>
           </cell>
           <cell r="B216" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C216" t="str">
-            <v>toHeat</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>strainer</v>
+            <v>pastaServer</v>
           </cell>
           <cell r="B217" t="str">
             <v>u</v>
@@ -4522,387 +4525,387 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>sugar</v>
+            <v>peeler</v>
           </cell>
           <cell r="B218" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C218" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>sweetPotatoes</v>
+            <v>phone</v>
           </cell>
           <cell r="B219" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C219" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>tablet</v>
+            <v>plantPot</v>
           </cell>
           <cell r="B220" t="str">
             <v>u</v>
           </cell>
           <cell r="C220" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>tahini</v>
+            <v>plate</v>
           </cell>
           <cell r="B221" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C221" t="str">
-            <v>condiment</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>tea</v>
+            <v>pot</v>
           </cell>
           <cell r="B222" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C222" t="str">
-            <v>drinks</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>teaPot</v>
+            <v>processor</v>
           </cell>
           <cell r="B223" t="str">
             <v>u</v>
           </cell>
           <cell r="C223" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>thyme</v>
+            <v>radio</v>
           </cell>
           <cell r="B224" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C224" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>timer</v>
+            <v>rBook</v>
           </cell>
           <cell r="B225" t="str">
             <v>u</v>
           </cell>
           <cell r="C225" t="str">
-            <v>measure</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>toaster</v>
+            <v>remoteControl</v>
           </cell>
           <cell r="B226" t="str">
             <v>u</v>
           </cell>
           <cell r="C226" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>toiletPaper</v>
+            <v>riceCooker</v>
           </cell>
           <cell r="B227" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C227" t="str">
-            <v>cleaning</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>tomatoes</v>
+            <v>rSheet</v>
           </cell>
           <cell r="B228" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C228" t="str">
-            <v>produce</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>tomatoesProcessed</v>
+            <v>scale</v>
           </cell>
           <cell r="B229" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C229" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>tomatoesSauce</v>
+            <v>scissors</v>
           </cell>
           <cell r="B230" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C230" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>tongs</v>
+            <v>sealingClips</v>
           </cell>
           <cell r="B231" t="str">
             <v>u</v>
           </cell>
           <cell r="C231" t="str">
-            <v>manipulate</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>tortillas</v>
+            <v>sinkDrainer</v>
           </cell>
           <cell r="B232" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C232" t="str">
-            <v>breads</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>towel</v>
+            <v>smartAssistant</v>
           </cell>
           <cell r="B233" t="str">
             <v>u</v>
           </cell>
           <cell r="C233" t="str">
-            <v>clean</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>trashB</v>
+            <v>smartWatch</v>
           </cell>
           <cell r="B234" t="str">
             <v>u</v>
           </cell>
           <cell r="C234" t="str">
-            <v>dispose</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>tray</v>
+            <v>smasher</v>
           </cell>
           <cell r="B235" t="str">
             <v>u</v>
           </cell>
           <cell r="C235" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>turmeric</v>
+            <v>speaker</v>
           </cell>
           <cell r="B236" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C236" t="str">
-            <v>spice</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>turnip</v>
+            <v>spoon</v>
           </cell>
           <cell r="B237" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C237" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>vacuum</v>
+            <v>strainer</v>
           </cell>
           <cell r="B238" t="str">
             <v>u</v>
           </cell>
           <cell r="C238" t="str">
-            <v>clean</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>vaper</v>
+            <v>tablet</v>
           </cell>
           <cell r="B239" t="str">
             <v>u</v>
           </cell>
           <cell r="C239" t="str">
-            <v>noCooking</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>vessel</v>
+            <v>teaPot</v>
           </cell>
           <cell r="B240" t="str">
             <v>u</v>
           </cell>
           <cell r="C240" t="str">
-            <v>noCooking</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>vinegar</v>
+            <v>timer</v>
           </cell>
           <cell r="B241" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C241" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>washingMachine</v>
+            <v>toaster</v>
           </cell>
           <cell r="B242" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C242" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>water</v>
+            <v>tongs</v>
           </cell>
           <cell r="B243" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C243" t="str">
-            <v>water</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>whisk</v>
+            <v>towel</v>
           </cell>
           <cell r="B244" t="str">
             <v>u</v>
           </cell>
           <cell r="C244" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>whitePepper</v>
+            <v>trashB</v>
           </cell>
           <cell r="B245" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C245" t="str">
-            <v>spice</v>
+            <v>dispose</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>window</v>
+            <v>tray</v>
           </cell>
           <cell r="B246" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C246" t="str">
-            <v>toSet</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>wine</v>
+            <v>vacuum</v>
           </cell>
           <cell r="B247" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C247" t="str">
-            <v>drinks</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>wipes</v>
+            <v>vaper</v>
           </cell>
           <cell r="B248" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C248" t="str">
-            <v>cleaning</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>wok</v>
+            <v>vessel</v>
           </cell>
           <cell r="B249" t="str">
             <v>u</v>
           </cell>
           <cell r="C249" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>worcestershireSauce</v>
+            <v>whisk</v>
           </cell>
           <cell r="B250" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C250" t="str">
-            <v>condiment</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>wristWatch</v>
+            <v>wok</v>
           </cell>
           <cell r="B251" t="str">
             <v>u</v>
           </cell>
           <cell r="C251" t="str">
-            <v>measure</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>yogurt</v>
+            <v>wristWatch</v>
           </cell>
           <cell r="B252" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C252" t="str">
-            <v>dairy</v>
+            <v>measure</v>
           </cell>
         </row>
       </sheetData>
@@ -4911,6 +4914,9 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/files/p04.xlsx
+++ b/files/p04.xlsx
@@ -655,7 +655,8 @@
       <sheetName val="participants"/>
       <sheetName val="inventory"/>
       <sheetName val="places"/>
-      <sheetName val="type"/>
+      <sheetName val="forms"/>
+      <sheetName val="activities"/>
       <sheetName val="all-items-raw"/>
       <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
@@ -4917,6 +4918,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19473,7 +19475,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D244" sqref="D244"/>
+      <selection pane="bottomLeft" activeCell="A243" sqref="A243:XFD243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
